--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
+  </si>
+  <si>
+    <t>SeedID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -365,8 +377,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I38" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:I38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I39" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:I39"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="Id" name="Id">
       <xmlColumnPr mapId="1" xpath="/Propertys/Property/@Id" xmlDataType="string"/>
@@ -663,9 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -710,20 +724,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -734,13 +748,13 @@
       <c r="H2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>50</v>
+      <c r="I2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>46</v>
@@ -752,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -764,12 +778,12 @@
         <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>46</v>
@@ -781,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -793,12 +807,12 @@
         <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>46</v>
@@ -822,12 +836,12 @@
         <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>46</v>
@@ -851,24 +865,24 @@
         <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -879,14 +893,16 @@
       <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -895,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -910,7 +926,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>48</v>
@@ -937,7 +953,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>48</v>
@@ -964,7 +980,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>48</v>
@@ -976,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -991,7 +1007,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>48</v>
@@ -1018,7 +1034,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>48</v>
@@ -1045,10 +1061,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1072,7 +1088,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -1081,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1095,13 +1111,11 @@
       <c r="H15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>46</v>
@@ -1125,12 +1139,12 @@
         <v>49</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>46</v>
@@ -1154,12 +1168,12 @@
         <v>49</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>46</v>
@@ -1183,12 +1197,12 @@
         <v>49</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>46</v>
@@ -1212,12 +1226,12 @@
         <v>49</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>46</v>
@@ -1241,12 +1255,12 @@
         <v>49</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
@@ -1270,12 +1284,12 @@
         <v>49</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
@@ -1299,12 +1313,12 @@
         <v>49</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
@@ -1328,12 +1342,12 @@
         <v>49</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -1357,12 +1371,12 @@
         <v>49</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>46</v>
@@ -1386,12 +1400,12 @@
         <v>49</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>46</v>
@@ -1415,12 +1429,12 @@
         <v>49</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
@@ -1444,12 +1458,12 @@
         <v>49</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>46</v>
@@ -1473,12 +1487,12 @@
         <v>49</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>46</v>
@@ -1502,12 +1516,12 @@
         <v>49</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>46</v>
@@ -1531,12 +1545,12 @@
         <v>49</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>46</v>
@@ -1560,12 +1574,12 @@
         <v>49</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>46</v>
@@ -1589,18 +1603,18 @@
         <v>49</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -1618,12 +1632,12 @@
         <v>49</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>46</v>
@@ -1647,12 +1661,12 @@
         <v>49</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>46</v>
@@ -1676,12 +1690,12 @@
         <v>49</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
@@ -1705,12 +1719,12 @@
         <v>49</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>46</v>
@@ -1734,43 +1748,73 @@
         <v>49</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -724,7 +724,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C15" sqref="C15:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1140,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3" t="b">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3" t="b">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3" t="b">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="b">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3" t="b">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3" t="b">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3" t="b">
         <v>1</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,14 @@
   </si>
   <si>
     <t>DEF_POISON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端预设模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I38" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:I38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I39" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:I39"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="Id" name="Id">
       <xmlColumnPr mapId="1" xpath="/Propertys/Property/@Id" xmlDataType="string"/>
@@ -721,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C38"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1828,6 +1836,35 @@
         <v>53</v>
       </c>
     </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -1,21 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
+    <sheet name="Record_PosList" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
@@ -258,19 +325,39 @@
   </si>
   <si>
     <t>客户端预设模型</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>PosList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StayTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -290,6 +377,18 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -316,23 +415,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -350,14 +434,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -656,6 +745,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -688,15 +778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -709,7 +798,7 @@
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -773,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -805,7 +894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -837,7 +926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -869,7 +958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -901,7 +990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -933,7 +1022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -963,7 +1052,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -993,7 +1082,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1112,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1053,7 +1142,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1083,7 +1172,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1202,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1143,7 +1232,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1175,7 +1264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1207,7 +1296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1239,7 +1328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1271,7 +1360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1303,7 +1392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1335,7 +1424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1367,7 +1456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1399,7 +1488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1431,7 +1520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -1463,7 +1552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1495,7 +1584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1527,7 +1616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -1559,7 +1648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -1591,7 +1680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1623,7 +1712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -1655,7 +1744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -1687,7 +1776,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -1719,7 +1808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
@@ -1751,7 +1840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -1783,7 +1872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -1815,7 +1904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
@@ -1847,7 +1936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
@@ -1879,7 +1968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>77</v>
       </c>
@@ -1911,7 +2000,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1944,14 +2033,140 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39 F40:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C3">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 D1:F3">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -350,6 +350,18 @@
   </si>
   <si>
     <t>StayTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -779,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2032,16 +2044,48 @@
         <v>80</v>
       </c>
     </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39 F40:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2050,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
   <si>
     <t>Id</t>
   </si>
@@ -357,11 +357,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MoveType</t>
+    <t>AtkDis</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>移动类型</t>
+    <t>攻击距离</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2046,7 +2054,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
@@ -2073,6 +2081,38 @@
         <v>12</v>
       </c>
       <c r="J40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
         <v>90</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,11 +47,24 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2094,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2142,16 +2142,16 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -2187,21 +2187,21 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C3">
       <formula1>0</formula1>
     </dataValidation>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>Id</t>
   </si>
@@ -353,16 +353,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
+    <t>DropPackList</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MoveType</t>
+    <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>移动类型</t>
+    <t>掉落列表</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIType</t>
+  </si>
+  <si>
+    <t>AI类型</t>
+  </si>
+  <si>
+    <t>AtkDis</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
   </si>
 </sst>
 </file>
@@ -791,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2046,33 +2058,97 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2094,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -365,16 +365,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AIType</t>
-  </si>
-  <si>
-    <t>AI类型</t>
-  </si>
-  <si>
     <t>AtkDis</t>
   </si>
   <si>
     <t>攻击距离</t>
+  </si>
+  <si>
+    <t>MoveType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -806,7 +808,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2058,7 +2060,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -2085,12 +2087,12 @@
         <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
@@ -2117,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -808,7 +808,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,7 +928,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
   <si>
     <t>Id</t>
   </si>
@@ -376,6 +376,14 @@
   </si>
   <si>
     <t>Move类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIDRef</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能列表索引</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2152,6 +2160,38 @@
       </c>
       <c r="J42" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,11 +29,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,11 +42,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,11 +55,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
@@ -82,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>Id</t>
   </si>
@@ -327,101 +322,79 @@
     <t>客户端预设模型</t>
   </si>
   <si>
+    <t>MoveType</t>
+  </si>
+  <si>
+    <t>Move类型</t>
+  </si>
+  <si>
+    <t>AtkDis</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>DropPackList</t>
+  </si>
+  <si>
+    <t>掉落列表</t>
+  </si>
+  <si>
+    <t>SkillIDRef</t>
+  </si>
+  <si>
+    <t>技能列表索引</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>模型高度</t>
+  </si>
+  <si>
     <t>Row</t>
   </si>
   <si>
     <t>Col</t>
   </si>
   <si>
+    <t>StayTime</t>
+  </si>
+  <si>
     <t>PosList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StayTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropPackList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkDis</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>MoveType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIDRef</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能列表索引</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -449,8 +422,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -468,19 +456,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -779,7 +762,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -812,14 +794,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -832,7 +815,7 @@
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -896,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -928,7 +911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -960,7 +943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -992,7 +975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1024,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1086,7 +1069,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +1099,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1146,7 +1129,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +1159,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1206,7 +1189,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1236,7 +1219,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1266,7 +1249,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1298,7 +1281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1330,7 +1313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1362,7 +1345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1394,7 +1377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1426,7 +1409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1458,7 +1441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1490,7 +1473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1522,7 +1505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1554,7 +1537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -1586,7 +1569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1618,7 +1601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1650,7 +1633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -1682,7 +1665,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -1714,7 +1697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1746,7 +1729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -1778,7 +1761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -1810,7 +1793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -1842,7 +1825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
@@ -1874,7 +1857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -1906,7 +1889,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -1938,7 +1921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
@@ -1970,7 +1953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
@@ -2002,7 +1985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>77</v>
       </c>
@@ -2034,7 +2017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -2066,9 +2049,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -2095,12 +2078,12 @@
         <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
@@ -2127,96 +2110,128 @@
         <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
         <v>88</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" t="s">
-        <v>96</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43 F44 F2:F42 F45:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
@@ -2225,15 +2240,15 @@
     <col min="13" max="13" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2260,21 +2275,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -2318,17 +2333,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 D1:F3">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C3">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 D1:F3">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
   <si>
     <t>Id</t>
   </si>
@@ -332,6 +332,14 @@
   </si>
   <si>
     <t>最后攻击者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名字</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -834,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2377,6 +2385,38 @@
         <v>99</v>
       </c>
     </row>
+    <row r="49" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
   <si>
     <t>Id</t>
   </si>
@@ -341,6 +341,14 @@
   <si>
     <t>显示名字</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipIDRef</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备列表索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -842,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2417,6 +2425,38 @@
         <v>101</v>
       </c>
     </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
   <si>
     <t>Id</t>
   </si>
@@ -335,19 +335,35 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ShowName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>EquipIDRef</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>装备列表索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowCard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌背景</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -850,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2393,41 +2409,41 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>101</v>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -2454,7 +2470,71 @@
         <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>Id</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>卡牌背景</t>
+  </si>
+  <si>
+    <t>HeroType</t>
+  </si>
+  <si>
+    <t>英雄类型，力智敏</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,7 +407,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,22 +428,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -444,23 +457,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -476,7 +482,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,8 +502,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,24 +541,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,19 +563,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.25"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,175 +665,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,21 +760,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -801,8 +780,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -812,7 +793,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,8 +816,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,11 +839,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,152 +865,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,28 +1023,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1461,10 +1452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1537,7 +1528,7 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
@@ -1545,234 +1536,234 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="b">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="b">
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="b">
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="b">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="b">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="b">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="b">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="b">
@@ -1793,16 +1784,16 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="b">
@@ -1823,16 +1814,16 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="7"/>
+      <c r="I11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="b">
@@ -1853,16 +1844,16 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="7"/>
+      <c r="I12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="b">
@@ -1883,16 +1874,16 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="b">
@@ -1913,16 +1904,16 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="7"/>
+      <c r="I14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="b">
@@ -1943,840 +1934,840 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="I15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:10">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="b">
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:10">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="b">
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:10">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="b">
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:10">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="b">
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:10">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="b">
+      <c r="B20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:10">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="b">
+      <c r="B21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:10">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="b">
+      <c r="B22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="8" t="s">
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:10">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="b">
+      <c r="B23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:10">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9" t="b">
+      <c r="B24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="8" t="s">
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:10">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9" t="b">
+      <c r="B25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:10">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="b">
+      <c r="B26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:10">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9" t="b">
+      <c r="B27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:10">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9" t="b">
+      <c r="B28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="8" t="s">
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:10">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9" t="b">
+      <c r="B29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="8" t="s">
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:10">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9" t="b">
+      <c r="B30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="8" t="s">
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:10">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="b">
+      <c r="B31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="8" t="s">
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:10">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9" t="b">
+      <c r="B32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="8" t="s">
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:10">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9" t="b">
+      <c r="B33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="8" t="s">
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:10">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9" t="b">
+      <c r="B34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="8" t="s">
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:10">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9" t="b">
+      <c r="B35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="8" t="s">
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:10">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9" t="b">
+      <c r="B36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="8" t="s">
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:10">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9" t="b">
+      <c r="B37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="8" t="s">
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:10">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9" t="b">
+      <c r="B38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="8" t="s">
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:10">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9" t="b">
+      <c r="B39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="8" t="s">
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:10">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9" t="b">
+      <c r="B40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="8" t="s">
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:10">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9" t="b">
+      <c r="B41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="8" t="s">
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2805,7 +2796,7 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J42" t="s">
@@ -2837,7 +2828,7 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J43" t="s">
@@ -2869,7 +2860,7 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J44" t="s">
@@ -2901,7 +2892,7 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J45" t="s">
@@ -2933,7 +2924,7 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J46" t="s">
@@ -2965,106 +2956,106 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:10">
-      <c r="A48" s="10" t="s">
+    <row r="48" s="2" customFormat="1" spans="1:10">
+      <c r="A48" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="b">
+      <c r="C48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="10" t="s">
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:10">
-      <c r="A49" s="10" t="s">
+    <row r="49" s="2" customFormat="1" spans="1:10">
+      <c r="A49" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="b">
+      <c r="C49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="10" t="s">
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" s="4" customFormat="1" spans="1:10">
-      <c r="A50" s="4" t="s">
+    <row r="50" s="3" customFormat="1" spans="1:10">
+      <c r="A50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4" t="b">
+      <c r="C50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="11" t="s">
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="10" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3093,7 +3084,7 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J51" t="s">
@@ -3125,7 +3116,7 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J52" t="s">
@@ -3157,7 +3148,7 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J53" t="s">
@@ -3189,17 +3180,49 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J54" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16 F17 F2:F15 F18:F54 F55:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16 F17 F55 F2:F15 F18:F54 F56:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="124">
   <si>
     <t>Id</t>
   </si>
@@ -387,6 +387,22 @@
   </si>
   <si>
     <t>DEF_WIND</t>
+  </si>
+  <si>
+    <t>Camp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤者，主人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MasterID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -862,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2725,6 +2741,70 @@
         <v>112</v>
       </c>
     </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">

--- a/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/NPC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="126">
   <si>
     <t>Id</t>
   </si>
@@ -402,6 +402,14 @@
   </si>
   <si>
     <t>MasterID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -878,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2805,6 +2813,38 @@
         <v>122</v>
       </c>
     </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
